--- a/graphs/Data_Graphs.xlsx
+++ b/graphs/Data_Graphs.xlsx
@@ -70,7 +70,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -114,7 +114,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -161,16 +167,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -215,7 +217,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFDB8238"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF4A7EBB"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -242,7 +244,7 @@
       <rgbColor rgb="FF6F568D"/>
       <rgbColor rgb="FF87A44B"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF4A7EBB"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF314004"/>
       <rgbColor rgb="FF993300"/>
@@ -254,7 +256,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -305,9 +307,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0747645711376941"/>
-          <c:y val="0.05602939246818"/>
-          <c:w val="0.633494527869687"/>
-          <c:h val="0.832567904474478"/>
+          <c:y val="0.0560367454068242"/>
+          <c:w val="0.633430898447442"/>
+          <c:h val="0.83241469816273"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -836,11 +838,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="95685026"/>
-        <c:axId val="34966579"/>
+        <c:axId val="26603525"/>
+        <c:axId val="21573926"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95685026"/>
+        <c:axId val="26603525"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,14 +916,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34966579"/>
+        <c:crossAx val="21573926"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34966579"/>
+        <c:axId val="21573926"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,7 +1007,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95685026"/>
+        <c:crossAx val="26603525"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1042,7 +1044,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1577,11 +1579,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="36435572"/>
-        <c:axId val="88567298"/>
+        <c:axId val="55168544"/>
+        <c:axId val="83256506"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36435572"/>
+        <c:axId val="55168544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,14 +1619,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88567298"/>
+        <c:crossAx val="83256506"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88567298"/>
+        <c:axId val="83256506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.6"/>
@@ -1672,7 +1674,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36435572"/>
+        <c:crossAx val="55168544"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1709,7 +1711,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2194,11 +2196,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="26787574"/>
-        <c:axId val="99687108"/>
+        <c:axId val="82668577"/>
+        <c:axId val="68148979"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26787574"/>
+        <c:axId val="82668577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,14 +2236,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99687108"/>
+        <c:crossAx val="68148979"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99687108"/>
+        <c:axId val="68148979"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2288,7 +2290,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26787574"/>
+        <c:crossAx val="82668577"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2325,7 +2327,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2810,11 +2812,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="64718607"/>
-        <c:axId val="62846783"/>
+        <c:axId val="71623647"/>
+        <c:axId val="92169323"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64718607"/>
+        <c:axId val="71623647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2888,14 +2890,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62846783"/>
+        <c:crossAx val="92169323"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62846783"/>
+        <c:axId val="92169323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2979,7 +2981,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64718607"/>
+        <c:crossAx val="71623647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3016,7 +3018,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3501,11 +3503,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="63535779"/>
-        <c:axId val="70089007"/>
+        <c:axId val="26039686"/>
+        <c:axId val="94883578"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63535779"/>
+        <c:axId val="26039686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3579,14 +3581,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70089007"/>
+        <c:crossAx val="94883578"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70089007"/>
+        <c:axId val="94883578"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -3671,7 +3673,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63535779"/>
+        <c:crossAx val="26039686"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3708,7 +3710,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4193,11 +4195,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="19691559"/>
-        <c:axId val="19851157"/>
+        <c:axId val="72691648"/>
+        <c:axId val="6144294"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="19691559"/>
+        <c:axId val="72691648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,14 +4273,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19851157"/>
+        <c:crossAx val="6144294"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19851157"/>
+        <c:axId val="6144294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4363,7 +4365,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19691559"/>
+        <c:crossAx val="72691648"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4400,7 +4402,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4885,11 +4887,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="34283598"/>
-        <c:axId val="31570546"/>
+        <c:axId val="49791085"/>
+        <c:axId val="45143313"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34283598"/>
+        <c:axId val="49791085"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,14 +4965,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31570546"/>
+        <c:crossAx val="45143313"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31570546"/>
+        <c:axId val="45143313"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.7"/>
@@ -5056,7 +5058,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34283598"/>
+        <c:crossAx val="49791085"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5093,7 +5095,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5249,6 +5251,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5387,11 +5390,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="87501176"/>
-        <c:axId val="61306118"/>
+        <c:axId val="45184295"/>
+        <c:axId val="47941437"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87501176"/>
+        <c:axId val="45184295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5465,14 +5468,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61306118"/>
+        <c:crossAx val="47941437"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61306118"/>
+        <c:axId val="47941437"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5557,7 +5560,588 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87501176"/>
+        <c:crossAx val="45184295"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>Temps d'éxécution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'fronsac_16_12_14-11_00'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bin/sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="426fa6"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="426fa6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'fronsac_16_12_14-11_00'!$H$26:$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'fronsac_16_12_14-11_00'!$D$1:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000768256187438964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000787329673767089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00338566303253173</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.253871965408325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>progdynamique</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>progdynamique</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'fronsac_16_12_14-11_00'!$H$26:$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'fronsac_16_12_14-11_00'!$D$87:$D$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000791335105895996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000813126564025878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000822424888610839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000940847396850585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>openmp</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>openmp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'fronsac_16_12_14-11_00'!$H$26:$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'fronsac_16_12_14-11_00'!$F$42:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0107613801956177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0111020088195801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0126248121261597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100798082351685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mpi</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="6f568d"/>
+            </a:solidFill>
+            <a:ln w="28440">
+              <a:solidFill>
+                <a:srgbClr val="6f568d"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'fronsac_16_12_14-11_00'!$H$26:$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'fronsac_16_12_14-11_00'!$I$16:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0377617120742797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0404603481292724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0331612586975097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.116853189468383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="82983175"/>
+        <c:axId val="88583047"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82983175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Nb itérations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88583047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88583047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="878787"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Temps (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="878787"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82983175"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5605,9 +6189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
+      <xdr:colOff>571320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5616,7 +6200,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13773240" y="781200"/>
-        <a:ext cx="5657760" cy="2743200"/>
+        <a:ext cx="5657400" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5635,9 +6219,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>542880</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>167760</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5646,7 +6230,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13744440" y="3809880"/>
-        <a:ext cx="5657760" cy="2918520"/>
+        <a:ext cx="5657400" cy="2918160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5665,9 +6249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>788400</xdr:colOff>
+      <xdr:colOff>788040</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5676,7 +6260,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13047840" y="485280"/>
-        <a:ext cx="5657040" cy="2743560"/>
+        <a:ext cx="5656680" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5695,9 +6279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>933120</xdr:colOff>
+      <xdr:colOff>932760</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5706,7 +6290,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4705200" y="17177040"/>
-        <a:ext cx="5657400" cy="2743560"/>
+        <a:ext cx="5657040" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5725,9 +6309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
+      <xdr:colOff>97920</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5736,7 +6320,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12356640" y="10829880"/>
-        <a:ext cx="5658120" cy="3619800"/>
+        <a:ext cx="5657760" cy="3619440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5755,9 +6339,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>461880</xdr:colOff>
+      <xdr:colOff>461520</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5766,7 +6350,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6119280" y="10267920"/>
-        <a:ext cx="5658120" cy="3257640"/>
+        <a:ext cx="5657760" cy="3257280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5785,9 +6369,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>627840</xdr:colOff>
+      <xdr:colOff>627480</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5796,7 +6380,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4400280" y="14173920"/>
-        <a:ext cx="5657040" cy="2743560"/>
+        <a:ext cx="5656680" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5808,16 +6392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323640</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>942840</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:colOff>323280</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5825,12 +6409,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14144400" y="16097400"/>
-        <a:ext cx="5657760" cy="2918520"/>
+        <a:off x="13525200" y="14659200"/>
+        <a:ext cx="5657400" cy="2918160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>452160</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>451800</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="452160" y="11736720"/>
+        <a:ext cx="5657400" cy="2918160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5846,8 +6460,8 @@
   </sheetPr>
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D102" activeCellId="0" sqref="D102"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5865,7 +6479,7 @@
       <c r="C1" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="0" t="n">
         <v>0.000768256187438964</v>
       </c>
     </row>
@@ -5879,7 +6493,7 @@
       <c r="C2" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="0" t="n">
         <v>0.000787329673767089</v>
       </c>
     </row>
@@ -5893,7 +6507,7 @@
       <c r="C3" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="0" t="n">
         <v>0.00338566303253173</v>
       </c>
     </row>
@@ -5907,7 +6521,7 @@
       <c r="C4" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="0" t="n">
         <v>0.253871965408325</v>
       </c>
     </row>
@@ -5921,7 +6535,7 @@
       <c r="C5" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="0" t="n">
         <v>24.3343091964721</v>
       </c>
       <c r="K5" s="0" t="s">
@@ -7544,7 +8158,7 @@
       <c r="C87" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D87" s="2" t="n">
+      <c r="D87" s="0" t="n">
         <v>0.000791335105895996</v>
       </c>
     </row>
@@ -7558,7 +8172,7 @@
       <c r="C88" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" s="0" t="n">
         <v>0.000813126564025878</v>
       </c>
     </row>
@@ -7572,7 +8186,7 @@
       <c r="C89" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" s="0" t="n">
         <v>0.000822424888610839</v>
       </c>
     </row>
@@ -7586,7 +8200,7 @@
       <c r="C90" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" s="0" t="n">
         <v>0.000940847396850585</v>
       </c>
     </row>
@@ -7600,7 +8214,7 @@
       <c r="C91" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="D91" s="2" t="n">
+      <c r="D91" s="0" t="n">
         <v>0.00180733203887939</v>
       </c>
     </row>
@@ -7614,7 +8228,7 @@
       <c r="C92" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" s="0" t="n">
         <v>0.0104534149169921</v>
       </c>
     </row>
@@ -7628,7 +8242,7 @@
       <c r="C93" s="0" t="n">
         <v>10000000</v>
       </c>
-      <c r="D93" s="2" t="n">
+      <c r="D93" s="0" t="n">
         <v>0.0946638584136962</v>
       </c>
     </row>
@@ -7642,7 +8256,7 @@
       <c r="C94" s="0" t="n">
         <v>100000000</v>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" s="0" t="n">
         <v>0.925060844421386</v>
       </c>
     </row>
@@ -7672,7 +8286,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="13" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.8542510121458"/>
     <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -7686,7 +8300,7 @@
       <c r="C1" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="0" t="n">
         <v>0.000768256187438964</v>
       </c>
     </row>
@@ -7700,7 +8314,7 @@
       <c r="C2" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="0" t="n">
         <v>0.000787329673767089</v>
       </c>
     </row>
@@ -7714,7 +8328,7 @@
       <c r="C3" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="0" t="n">
         <v>0.00338566303253173</v>
       </c>
       <c r="M3" s="0" t="s">
@@ -7723,19 +8337,19 @@
       <c r="N3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="2" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -7749,28 +8363,28 @@
       <c r="C4" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="0" t="n">
         <v>0.253871965408325</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="0" t="n">
         <v>0.000768256187438964</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="0" t="n">
         <v>0.000787329673767089</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="0" t="n">
         <v>0.00338566303253173</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="0" t="n">
         <v>0.253871965408325</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="0" t="n">
         <v>24.3343091964721</v>
       </c>
     </row>
@@ -7784,13 +8398,13 @@
       <c r="C5" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="0" t="n">
         <v>24.3343091964721</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="O5" s="0" t="n">
@@ -7843,10 +8457,10 @@
         <f aca="false">I6/D1</f>
         <v>10.8659963380194</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="O6" s="0" t="n">
@@ -7899,10 +8513,10 @@
         <f aca="false">I7/D2</f>
         <v>9.96017926899434</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="2" t="n">
         <v>8</v>
       </c>
       <c r="O7" s="0" t="n">
@@ -7955,10 +8569,10 @@
         <f aca="false">I8/D3</f>
         <v>2.9119185944157</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="2" t="n">
         <v>16</v>
       </c>
       <c r="O8" s="0" t="n">
@@ -8011,10 +8625,10 @@
         <f aca="false">I9/D4</f>
         <v>0.788513266421002</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="2" t="n">
         <v>32</v>
       </c>
       <c r="O9" s="0" t="n">
@@ -8105,19 +8719,19 @@
       <c r="M11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="2" t="n">
+      <c r="O11" s="0" t="n">
         <v>0.000791335105895996</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="0" t="n">
         <v>0.000813126564025878</v>
       </c>
-      <c r="Q11" s="2" t="n">
+      <c r="Q11" s="0" t="n">
         <v>0.000822424888610839</v>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="R11" s="0" t="n">
         <v>0.000940847396850585</v>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="0" t="n">
         <v>0.00180733203887939</v>
       </c>
     </row>
@@ -8796,7 +9410,7 @@
       <c r="C31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="0" t="n">
         <v>0.000791335105895996</v>
       </c>
     </row>
@@ -8810,7 +9424,7 @@
       <c r="C32" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="0" t="n">
         <v>0.000813126564025878</v>
       </c>
     </row>
@@ -8824,7 +9438,7 @@
       <c r="C33" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="0" t="n">
         <v>0.000822424888610839</v>
       </c>
     </row>
@@ -8838,7 +9452,7 @@
       <c r="C34" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="0" t="n">
         <v>0.000940847396850585</v>
       </c>
     </row>
@@ -8852,7 +9466,7 @@
       <c r="C35" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="0" t="n">
         <v>0.00180733203887939</v>
       </c>
     </row>
@@ -8866,7 +9480,7 @@
       <c r="C36" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="0" t="n">
         <v>0.0104534149169921</v>
       </c>
     </row>
@@ -8880,7 +9494,7 @@
       <c r="C37" s="0" t="n">
         <v>10000000</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="0" t="n">
         <v>0.0946638584136962</v>
       </c>
     </row>
@@ -8894,7 +9508,7 @@
       <c r="C38" s="0" t="n">
         <v>100000000</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="0" t="n">
         <v>0.925060844421386</v>
       </c>
     </row>
